--- a/PICO/Measured preformance/Frequency response/Frequency response.xlsx
+++ b/PICO/Measured preformance/Frequency response/Frequency response.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>Test</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>Frequency Generator (LuxDeLux 3.1)</t>
+  </si>
+  <si>
+    <t>AVG (mT)</t>
+  </si>
+  <si>
+    <t>MAX (mT)</t>
   </si>
   <si>
     <t>Hz</t>
@@ -95,13 +101,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -237,11 +244,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="159808979"/>
-        <c:axId val="1613328315"/>
+        <c:axId val="14374882"/>
+        <c:axId val="1801470645"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159808979"/>
+        <c:axId val="14374882"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -293,10 +300,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1613328315"/>
+        <c:crossAx val="1801470645"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1613328315"/>
+        <c:axId val="1801470645"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -371,7 +378,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159808979"/>
+        <c:crossAx val="14374882"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -524,11 +531,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="757452614"/>
-        <c:axId val="1424193809"/>
+        <c:axId val="163967449"/>
+        <c:axId val="1393632760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="757452614"/>
+        <c:axId val="163967449"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -580,10 +587,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1424193809"/>
+        <c:crossAx val="1393632760"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1424193809"/>
+        <c:axId val="1393632760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -658,7 +665,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="757452614"/>
+        <c:crossAx val="163967449"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -811,11 +818,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1443037729"/>
-        <c:axId val="667331295"/>
+        <c:axId val="568364233"/>
+        <c:axId val="1830371789"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1443037729"/>
+        <c:axId val="568364233"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -867,10 +874,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="667331295"/>
+        <c:crossAx val="1830371789"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="667331295"/>
+        <c:axId val="1830371789"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -945,7 +952,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1443037729"/>
+        <c:crossAx val="568364233"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1325,6 +1332,24 @@
         <v>10</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2">
+        <f>AVERAGE(Test1!B2:B28,Test1!D2:D28,Test1!F2:F28)</f>
+        <v>0.4241851852</v>
+      </c>
+      <c r="B27" s="2">
+        <f>MAX(Test1!B2:B28,Test1!D2:D28,Test1!F2:F28)</f>
+        <v>0.517</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1342,7 +1367,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -1986,22 +2011,22 @@
     </row>
     <row r="29">
       <c r="B29" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
